--- a/Genshin Impact_Test Case.xlsx
+++ b/Genshin Impact_Test Case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PORTFOLIO\BGY_PORTFOLIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C31A9B9-95E7-4330-9648-281FC260333B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EAC3C1-6028-41B0-A723-81EA989CCE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="216" yWindow="804" windowWidth="19656" windowHeight="11868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="양식" sheetId="1" r:id="rId1"/>
@@ -1044,8 +1044,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:E447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:F32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
